--- a/data/survival/survival_resazurin.xlsx
+++ b/data/survival/survival_resazurin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/10K-seed-Cgigas/data/survival/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB13BD-4F27-CE49-A94F-3784E69A6A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF9D16-2BA6-7D44-9559-DC819B0EDB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36760" yWindow="-600" windowWidth="25800" windowHeight="17440" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
+    <workbookView xWindow="-31300" yWindow="-1460" windowWidth="25800" windowHeight="18880" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="19">
   <si>
     <t>date.resazurin</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>time24</t>
-  </si>
-  <si>
-    <t>time32</t>
   </si>
   <si>
     <t>0 = start of day</t>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>fresh-water</t>
+  </si>
+  <si>
+    <t>ADD intermediate time stamps??</t>
   </si>
 </sst>
 </file>
@@ -465,11 +465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE0A6E7-C44F-C349-A3CE-3BF585EE18ED}">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,7 +479,7 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,13 +487,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -504,22 +504,19 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,24 +528,21 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -562,22 +556,19 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -589,24 +580,21 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -620,22 +608,22 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -649,22 +637,19 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B7">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -676,24 +661,21 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -707,22 +689,19 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -734,24 +713,21 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -765,22 +741,19 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B11">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -794,22 +767,19 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B12">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -821,24 +791,21 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -852,22 +819,19 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B14">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -879,24 +843,21 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B15">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -910,22 +871,19 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B16">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -939,22 +897,19 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -966,24 +921,21 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -997,22 +949,19 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B19">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1026,22 +975,19 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B20">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1055,22 +1001,19 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B21">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1079,27 +1022,24 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1111,24 +1051,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B23">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1137,27 +1074,24 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B24">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1171,22 +1105,19 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B25">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1198,24 +1129,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B26">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1227,24 +1155,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B27">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1258,22 +1183,19 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B28">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1282,27 +1204,24 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B29">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1316,22 +1235,19 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B30">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1345,22 +1261,19 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B31">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1369,27 +1282,24 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B32">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1403,22 +1313,19 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B33">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1427,27 +1334,24 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B34">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1456,27 +1360,24 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B35">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1490,22 +1391,19 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1517,24 +1415,21 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B37">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1543,27 +1438,24 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B38">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1572,27 +1464,24 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B39">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1604,24 +1493,21 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B40">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1630,27 +1516,24 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>20240722</v>
+        <v>20240724</v>
       </c>
       <c r="B41">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1659,27 +1542,24 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B42">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1691,24 +1571,21 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B43">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1717,27 +1594,24 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B44">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -1751,22 +1625,19 @@
       <c r="H44">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B45">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -1780,22 +1651,19 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B46">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -1807,24 +1675,21 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B47">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -1838,22 +1703,19 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B48">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>7</v>
@@ -1867,22 +1729,19 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B49">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>8</v>
@@ -1894,24 +1753,21 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B50">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>9</v>
@@ -1923,24 +1779,21 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B51">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>10</v>
@@ -1954,22 +1807,19 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B52">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>11</v>
@@ -1983,22 +1833,19 @@
       <c r="H52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B53">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>12</v>
@@ -2012,22 +1859,19 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B54">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>13</v>
@@ -2041,22 +1885,19 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B55">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>14</v>
@@ -2070,22 +1911,19 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B56">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>15</v>
@@ -2099,22 +1937,19 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B57">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>16</v>
@@ -2128,22 +1963,19 @@
       <c r="H57">
         <v>1</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B58">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>17</v>
@@ -2157,22 +1989,19 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B59">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>18</v>
@@ -2184,24 +2013,21 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B60">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>19</v>
@@ -2215,22 +2041,19 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B61">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -2239,27 +2062,24 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B62">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>21</v>
@@ -2271,24 +2091,21 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B63">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>22</v>
@@ -2302,22 +2119,19 @@
       <c r="H63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B64">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>23</v>
@@ -2326,27 +2140,24 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B65">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>24</v>
@@ -2355,27 +2166,24 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B66">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>25</v>
@@ -2389,22 +2197,19 @@
       <c r="H66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B67">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>26</v>
@@ -2413,27 +2218,24 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B68">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>27</v>
@@ -2447,22 +2249,19 @@
       <c r="H68">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B69">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>28</v>
@@ -2471,27 +2270,24 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B70">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>29</v>
@@ -2500,27 +2296,24 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B71">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>30</v>
@@ -2534,22 +2327,19 @@
       <c r="H71">
         <v>1</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B72">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>31</v>
@@ -2561,24 +2351,21 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B73">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>32</v>
@@ -2592,22 +2379,19 @@
       <c r="H73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B74">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>33</v>
@@ -2621,22 +2405,19 @@
       <c r="H74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B75">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>34</v>
@@ -2648,24 +2429,21 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B76">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>35</v>
@@ -2679,22 +2457,19 @@
       <c r="H76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B77">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77">
         <v>36</v>
@@ -2703,27 +2478,24 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B78">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>37</v>
@@ -2737,22 +2509,19 @@
       <c r="H78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B79">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <v>38</v>
@@ -2764,24 +2533,21 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B80">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>39</v>
@@ -2790,27 +2556,24 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>20240724</v>
+        <v>20240725</v>
       </c>
       <c r="B81">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>40</v>
@@ -2824,22 +2587,19 @@
       <c r="H81">
         <v>1</v>
       </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B82">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2853,22 +2613,19 @@
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B83">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2877,27 +2634,24 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B84">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -2909,24 +2663,21 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B85">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -2940,22 +2691,19 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B86">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -2969,22 +2717,19 @@
       <c r="H86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B87">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>6</v>
@@ -2998,22 +2743,19 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B88">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E88">
         <v>7</v>
@@ -3027,22 +2769,19 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B89">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>8</v>
@@ -3056,22 +2795,19 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B90">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E90">
         <v>9</v>
@@ -3083,24 +2819,21 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B91">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>10</v>
@@ -3112,24 +2845,21 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B92">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>11</v>
@@ -3141,24 +2871,21 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B93">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>12</v>
@@ -3172,22 +2899,19 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B94">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>13</v>
@@ -3201,22 +2925,19 @@
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B95">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>14</v>
@@ -3230,22 +2951,19 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B96">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>15</v>
@@ -3259,22 +2977,19 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B97">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>16</v>
@@ -3288,22 +3003,19 @@
       <c r="H97">
         <v>1</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B98">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>17</v>
@@ -3317,22 +3029,19 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B99">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>18</v>
@@ -3344,24 +3053,21 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B100">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>19</v>
@@ -3375,22 +3081,19 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B101">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>20</v>
@@ -3404,22 +3107,19 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B102">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E102">
         <v>21</v>
@@ -3428,27 +3128,24 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B103">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E103">
         <v>22</v>
@@ -3462,22 +3159,19 @@
       <c r="H103">
         <v>1</v>
       </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B104">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E104">
         <v>23</v>
@@ -3491,22 +3185,19 @@
       <c r="H104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B105">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E105">
         <v>24</v>
@@ -3520,22 +3211,19 @@
       <c r="H105">
         <v>1</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B106">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E106">
         <v>25</v>
@@ -3544,27 +3232,24 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B107">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E107">
         <v>26</v>
@@ -3573,27 +3258,24 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B108">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>27</v>
@@ -3602,27 +3284,24 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B109">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <v>28</v>
@@ -3636,22 +3315,19 @@
       <c r="H109">
         <v>1</v>
       </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B110">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E110">
         <v>29</v>
@@ -3660,27 +3336,24 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B111">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E111">
         <v>30</v>
@@ -3694,22 +3367,19 @@
       <c r="H111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B112">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E112">
         <v>31</v>
@@ -3723,22 +3393,19 @@
       <c r="H112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B113">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E113">
         <v>32</v>
@@ -3752,22 +3419,19 @@
       <c r="H113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B114">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E114">
         <v>33</v>
@@ -3781,22 +3445,19 @@
       <c r="H114">
         <v>1</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B115">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E115">
         <v>34</v>
@@ -3805,27 +3466,24 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B116">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E116">
         <v>35</v>
@@ -3839,22 +3497,19 @@
       <c r="H116">
         <v>1</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B117">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E117">
         <v>36</v>
@@ -3868,22 +3523,19 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B118">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E118">
         <v>37</v>
@@ -3897,22 +3549,19 @@
       <c r="H118">
         <v>1</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B119">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E119">
         <v>38</v>
@@ -3921,27 +3570,24 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B120">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E120">
         <v>39</v>
@@ -3953,24 +3599,21 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>20240725</v>
+        <v>20240729</v>
       </c>
       <c r="B121">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121">
         <v>40</v>
@@ -3979,1172 +3622,9 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>20240729</v>
-      </c>
-      <c r="B122">
-        <v>37</v>
-      </c>
-      <c r="C122" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>20240729</v>
-      </c>
-      <c r="B123">
-        <v>37</v>
-      </c>
-      <c r="C123" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123">
-        <v>2</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>20240729</v>
-      </c>
-      <c r="B124">
-        <v>37</v>
-      </c>
-      <c r="C124" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124">
-        <v>3</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>20240729</v>
-      </c>
-      <c r="B125">
-        <v>37</v>
-      </c>
-      <c r="C125" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125">
-        <v>4</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>20240729</v>
-      </c>
-      <c r="B126">
-        <v>37</v>
-      </c>
-      <c r="C126" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126">
-        <v>5</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>20240729</v>
-      </c>
-      <c r="B127">
-        <v>37</v>
-      </c>
-      <c r="C127" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127">
-        <v>6</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>20240729</v>
-      </c>
-      <c r="B128">
-        <v>37</v>
-      </c>
-      <c r="C128" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128">
-        <v>7</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>20240729</v>
-      </c>
-      <c r="B129">
-        <v>37</v>
-      </c>
-      <c r="C129" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129">
-        <v>8</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>20240729</v>
-      </c>
-      <c r="B130">
-        <v>37</v>
-      </c>
-      <c r="C130" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130">
-        <v>9</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>20240729</v>
-      </c>
-      <c r="B131">
-        <v>37</v>
-      </c>
-      <c r="C131" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131">
-        <v>10</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>20240729</v>
-      </c>
-      <c r="B132">
-        <v>37</v>
-      </c>
-      <c r="C132" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132">
-        <v>11</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>20240729</v>
-      </c>
-      <c r="B133">
-        <v>37</v>
-      </c>
-      <c r="C133" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133">
-        <v>12</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>20240729</v>
-      </c>
-      <c r="B134">
-        <v>37</v>
-      </c>
-      <c r="C134" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134">
-        <v>13</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>20240729</v>
-      </c>
-      <c r="B135">
-        <v>37</v>
-      </c>
-      <c r="C135" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135">
-        <v>14</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>20240729</v>
-      </c>
-      <c r="B136">
-        <v>37</v>
-      </c>
-      <c r="C136" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136">
-        <v>15</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>20240729</v>
-      </c>
-      <c r="B137">
-        <v>37</v>
-      </c>
-      <c r="C137" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137">
-        <v>16</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>20240729</v>
-      </c>
-      <c r="B138">
-        <v>37</v>
-      </c>
-      <c r="C138" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138">
-        <v>17</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>20240729</v>
-      </c>
-      <c r="B139">
-        <v>37</v>
-      </c>
-      <c r="C139" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139">
-        <v>18</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>20240729</v>
-      </c>
-      <c r="B140">
-        <v>37</v>
-      </c>
-      <c r="C140" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140">
-        <v>19</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>20240729</v>
-      </c>
-      <c r="B141">
-        <v>37</v>
-      </c>
-      <c r="C141" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141">
-        <v>20</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>20240729</v>
-      </c>
-      <c r="B142">
-        <v>37</v>
-      </c>
-      <c r="C142" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142">
-        <v>21</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>20240729</v>
-      </c>
-      <c r="B143">
-        <v>37</v>
-      </c>
-      <c r="C143" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143">
-        <v>22</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>20240729</v>
-      </c>
-      <c r="B144">
-        <v>37</v>
-      </c>
-      <c r="C144" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144">
-        <v>23</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>20240729</v>
-      </c>
-      <c r="B145">
-        <v>37</v>
-      </c>
-      <c r="C145" t="s">
-        <v>17</v>
-      </c>
-      <c r="D145" t="s">
-        <v>16</v>
-      </c>
-      <c r="E145">
-        <v>24</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>1</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>20240729</v>
-      </c>
-      <c r="B146">
-        <v>37</v>
-      </c>
-      <c r="C146" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" t="s">
-        <v>16</v>
-      </c>
-      <c r="E146">
-        <v>25</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>20240729</v>
-      </c>
-      <c r="B147">
-        <v>37</v>
-      </c>
-      <c r="C147" t="s">
-        <v>17</v>
-      </c>
-      <c r="D147" t="s">
-        <v>16</v>
-      </c>
-      <c r="E147">
-        <v>26</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>1</v>
-      </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>20240729</v>
-      </c>
-      <c r="B148">
-        <v>37</v>
-      </c>
-      <c r="C148" t="s">
-        <v>17</v>
-      </c>
-      <c r="D148" t="s">
-        <v>16</v>
-      </c>
-      <c r="E148">
-        <v>27</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>1</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>20240729</v>
-      </c>
-      <c r="B149">
-        <v>37</v>
-      </c>
-      <c r="C149" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" t="s">
-        <v>16</v>
-      </c>
-      <c r="E149">
-        <v>28</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>20240729</v>
-      </c>
-      <c r="B150">
-        <v>37</v>
-      </c>
-      <c r="C150" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150">
-        <v>29</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>1</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>20240729</v>
-      </c>
-      <c r="B151">
-        <v>37</v>
-      </c>
-      <c r="C151" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" t="s">
-        <v>16</v>
-      </c>
-      <c r="E151">
-        <v>30</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>20240729</v>
-      </c>
-      <c r="B152">
-        <v>37</v>
-      </c>
-      <c r="C152" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" t="s">
-        <v>16</v>
-      </c>
-      <c r="E152">
-        <v>31</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>20240729</v>
-      </c>
-      <c r="B153">
-        <v>37</v>
-      </c>
-      <c r="C153" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" t="s">
-        <v>16</v>
-      </c>
-      <c r="E153">
-        <v>32</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>20240729</v>
-      </c>
-      <c r="B154">
-        <v>37</v>
-      </c>
-      <c r="C154" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" t="s">
-        <v>16</v>
-      </c>
-      <c r="E154">
-        <v>33</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>20240729</v>
-      </c>
-      <c r="B155">
-        <v>37</v>
-      </c>
-      <c r="C155" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155">
-        <v>34</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>20240729</v>
-      </c>
-      <c r="B156">
-        <v>37</v>
-      </c>
-      <c r="C156" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156">
-        <v>35</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>20240729</v>
-      </c>
-      <c r="B157">
-        <v>37</v>
-      </c>
-      <c r="C157" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" t="s">
-        <v>16</v>
-      </c>
-      <c r="E157">
-        <v>36</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>20240729</v>
-      </c>
-      <c r="B158">
-        <v>37</v>
-      </c>
-      <c r="C158" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" t="s">
-        <v>16</v>
-      </c>
-      <c r="E158">
-        <v>37</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>20240729</v>
-      </c>
-      <c r="B159">
-        <v>37</v>
-      </c>
-      <c r="C159" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159">
-        <v>38</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>20240729</v>
-      </c>
-      <c r="B160">
-        <v>37</v>
-      </c>
-      <c r="C160" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" t="s">
-        <v>16</v>
-      </c>
-      <c r="E160">
-        <v>39</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>20240729</v>
-      </c>
-      <c r="B161">
-        <v>37</v>
-      </c>
-      <c r="C161" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" t="s">
-        <v>16</v>
-      </c>
-      <c r="E161">
-        <v>40</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
         <v>0</v>
       </c>
     </row>
@@ -5165,32 +3645,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/survival/survival_resazurin.xlsx
+++ b/data/survival/survival_resazurin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/10K-seed-Cgigas/data/survival/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF9D16-2BA6-7D44-9559-DC819B0EDB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D232083D-93FC-FB4C-95AD-9E9424BB8FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31300" yWindow="-1460" windowWidth="25800" windowHeight="18880" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
+    <workbookView xWindow="-33000" yWindow="-1460" windowWidth="30280" windowHeight="19380" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="17">
   <si>
     <t>date.resazurin</t>
   </si>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>temperature</t>
-  </si>
-  <si>
-    <t>time0</t>
-  </si>
-  <si>
-    <t>time4</t>
-  </si>
-  <si>
-    <t>time24</t>
   </si>
   <si>
     <t>0 = start of day</t>
@@ -93,7 +84,10 @@
     <t>fresh-water</t>
   </si>
   <si>
-    <t>ADD intermediate time stamps??</t>
+    <t>fresh-water-temperature</t>
+  </si>
+  <si>
+    <t>immune</t>
   </si>
 </sst>
 </file>
@@ -465,21 +459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE0A6E7-C44F-C349-A3CE-3BF585EE18ED}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:K241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,25 +481,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20240724</v>
       </c>
@@ -513,10 +516,10 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -528,10 +531,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20240724</v>
       </c>
@@ -539,10 +551,10 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -556,8 +568,17 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20240724</v>
       </c>
@@ -565,10 +586,10 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -580,10 +601,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20240724</v>
       </c>
@@ -591,10 +621,10 @@
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -608,11 +638,17 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20240724</v>
       </c>
@@ -620,10 +656,10 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -637,8 +673,17 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20240724</v>
       </c>
@@ -646,10 +691,10 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -663,8 +708,17 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20240724</v>
       </c>
@@ -672,10 +726,10 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -689,8 +743,17 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20240724</v>
       </c>
@@ -698,10 +761,10 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -713,10 +776,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20240724</v>
       </c>
@@ -724,10 +796,10 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -741,8 +813,17 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20240724</v>
       </c>
@@ -750,10 +831,10 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -767,8 +848,17 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20240724</v>
       </c>
@@ -776,10 +866,10 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -791,10 +881,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20240724</v>
       </c>
@@ -802,10 +901,10 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -819,8 +918,17 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20240724</v>
       </c>
@@ -828,10 +936,10 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -845,8 +953,17 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20240724</v>
       </c>
@@ -854,10 +971,10 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -871,8 +988,17 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20240724</v>
       </c>
@@ -880,10 +1006,10 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -897,8 +1023,17 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20240724</v>
       </c>
@@ -906,10 +1041,10 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -921,10 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20240724</v>
       </c>
@@ -932,10 +1076,10 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -949,8 +1093,17 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20240724</v>
       </c>
@@ -958,10 +1111,10 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -975,8 +1128,17 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20240724</v>
       </c>
@@ -984,10 +1146,10 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1001,8 +1163,17 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20240724</v>
       </c>
@@ -1010,10 +1181,10 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1022,13 +1193,22 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20240724</v>
       </c>
@@ -1036,10 +1216,10 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1053,8 +1233,17 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20240724</v>
       </c>
@@ -1062,10 +1251,10 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1074,13 +1263,22 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20240724</v>
       </c>
@@ -1088,10 +1286,10 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1105,8 +1303,17 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20240724</v>
       </c>
@@ -1114,10 +1321,10 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1129,10 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20240724</v>
       </c>
@@ -1140,10 +1356,10 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1155,10 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20240724</v>
       </c>
@@ -1166,10 +1391,10 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1183,8 +1408,17 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20240724</v>
       </c>
@@ -1192,10 +1426,10 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1204,13 +1438,22 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20240724</v>
       </c>
@@ -1218,10 +1461,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1235,8 +1478,17 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20240724</v>
       </c>
@@ -1244,10 +1496,10 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1259,10 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>20240724</v>
       </c>
@@ -1270,10 +1531,10 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1282,13 +1543,22 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>20240724</v>
       </c>
@@ -1296,10 +1566,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1313,8 +1583,17 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20240724</v>
       </c>
@@ -1322,10 +1601,10 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1334,13 +1613,22 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>20240724</v>
       </c>
@@ -1348,10 +1636,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1360,13 +1648,22 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>20240724</v>
       </c>
@@ -1374,10 +1671,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1389,10 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>20240724</v>
       </c>
@@ -1400,10 +1706,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1415,10 +1721,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>20240724</v>
       </c>
@@ -1426,10 +1741,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1438,13 +1753,22 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>20240724</v>
       </c>
@@ -1452,10 +1776,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1464,13 +1788,22 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>20240724</v>
       </c>
@@ -1478,10 +1811,10 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1493,10 +1826,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>20240724</v>
       </c>
@@ -1504,10 +1846,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1516,13 +1858,22 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20240724</v>
       </c>
@@ -1530,10 +1881,10 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1542,13 +1893,22 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>20240725</v>
       </c>
@@ -1556,10 +1916,10 @@
         <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1573,8 +1933,17 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>20240725</v>
       </c>
@@ -1582,10 +1951,10 @@
         <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1594,13 +1963,22 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>20240725</v>
       </c>
@@ -1608,10 +1986,10 @@
         <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -1623,10 +2001,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>20240725</v>
       </c>
@@ -1634,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -1651,8 +2038,17 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>20240725</v>
       </c>
@@ -1660,10 +2056,10 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -1675,10 +2071,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>20240725</v>
       </c>
@@ -1686,10 +2091,10 @@
         <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -1703,8 +2108,17 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>20240725</v>
       </c>
@@ -1712,10 +2126,10 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E48">
         <v>7</v>
@@ -1729,8 +2143,17 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>20240725</v>
       </c>
@@ -1738,10 +2161,10 @@
         <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E49">
         <v>8</v>
@@ -1755,8 +2178,17 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>20240725</v>
       </c>
@@ -1764,10 +2196,10 @@
         <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E50">
         <v>9</v>
@@ -1779,10 +2211,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>20240725</v>
       </c>
@@ -1790,10 +2231,10 @@
         <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <v>10</v>
@@ -1807,8 +2248,17 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>20240725</v>
       </c>
@@ -1816,10 +2266,10 @@
         <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E52">
         <v>11</v>
@@ -1831,10 +2281,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>20240725</v>
       </c>
@@ -1842,10 +2301,10 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E53">
         <v>12</v>
@@ -1859,8 +2318,17 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>20240725</v>
       </c>
@@ -1868,10 +2336,10 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E54">
         <v>13</v>
@@ -1885,8 +2353,17 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>20240725</v>
       </c>
@@ -1894,10 +2371,10 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E55">
         <v>14</v>
@@ -1911,8 +2388,17 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>20240725</v>
       </c>
@@ -1920,10 +2406,10 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E56">
         <v>15</v>
@@ -1937,8 +2423,17 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>20240725</v>
       </c>
@@ -1946,10 +2441,10 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E57">
         <v>16</v>
@@ -1961,10 +2456,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>20240725</v>
       </c>
@@ -1972,10 +2476,10 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E58">
         <v>17</v>
@@ -1989,8 +2493,17 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>20240725</v>
       </c>
@@ -1998,10 +2511,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E59">
         <v>18</v>
@@ -2013,10 +2526,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>20240725</v>
       </c>
@@ -2024,10 +2546,10 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E60">
         <v>19</v>
@@ -2041,8 +2563,17 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>20240725</v>
       </c>
@@ -2050,10 +2581,10 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -2067,8 +2598,17 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>20240725</v>
       </c>
@@ -2076,10 +2616,10 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <v>21</v>
@@ -2091,10 +2631,19 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>20240725</v>
       </c>
@@ -2102,10 +2651,10 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E63">
         <v>22</v>
@@ -2114,13 +2663,22 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>20240725</v>
       </c>
@@ -2128,10 +2686,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <v>23</v>
@@ -2140,13 +2698,22 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>20240725</v>
       </c>
@@ -2154,10 +2721,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E65">
         <v>24</v>
@@ -2166,13 +2733,22 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>20240725</v>
       </c>
@@ -2180,10 +2756,10 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E66">
         <v>25</v>
@@ -2195,10 +2771,19 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>20240725</v>
       </c>
@@ -2206,10 +2791,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <v>26</v>
@@ -2218,13 +2803,22 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>20240725</v>
       </c>
@@ -2232,10 +2826,10 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E68">
         <v>27</v>
@@ -2244,13 +2838,22 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>20240725</v>
       </c>
@@ -2258,10 +2861,10 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E69">
         <v>28</v>
@@ -2270,13 +2873,22 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>20240725</v>
       </c>
@@ -2284,10 +2896,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E70">
         <v>29</v>
@@ -2296,13 +2908,22 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>20240725</v>
       </c>
@@ -2310,10 +2931,10 @@
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E71">
         <v>30</v>
@@ -2322,13 +2943,22 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>20240725</v>
       </c>
@@ -2336,10 +2966,10 @@
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <v>31</v>
@@ -2351,10 +2981,19 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>20240725</v>
       </c>
@@ -2362,10 +3001,10 @@
         <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E73">
         <v>32</v>
@@ -2374,13 +3013,22 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>20240725</v>
       </c>
@@ -2388,10 +3036,10 @@
         <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E74">
         <v>33</v>
@@ -2400,13 +3048,22 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>20240725</v>
       </c>
@@ -2414,10 +3071,10 @@
         <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E75">
         <v>34</v>
@@ -2431,8 +3088,17 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>20240725</v>
       </c>
@@ -2440,10 +3106,10 @@
         <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E76">
         <v>35</v>
@@ -2455,10 +3121,19 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>20240725</v>
       </c>
@@ -2466,10 +3141,10 @@
         <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>36</v>
@@ -2483,8 +3158,17 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>20240725</v>
       </c>
@@ -2492,10 +3176,10 @@
         <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <v>37</v>
@@ -2504,13 +3188,22 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>20240725</v>
       </c>
@@ -2518,10 +3211,10 @@
         <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E79">
         <v>38</v>
@@ -2535,8 +3228,17 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>20240725</v>
       </c>
@@ -2544,10 +3246,10 @@
         <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E80">
         <v>39</v>
@@ -2561,8 +3263,17 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>20240725</v>
       </c>
@@ -2570,10 +3281,10 @@
         <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E81">
         <v>40</v>
@@ -2582,13 +3293,22 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>20240729</v>
       </c>
@@ -2596,10 +3316,10 @@
         <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2613,8 +3333,17 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>20240729</v>
       </c>
@@ -2622,10 +3351,10 @@
         <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2639,8 +3368,17 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>20240729</v>
       </c>
@@ -2648,10 +3386,10 @@
         <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -2665,8 +3403,17 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>20240729</v>
       </c>
@@ -2674,10 +3421,10 @@
         <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -2691,8 +3438,17 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>20240729</v>
       </c>
@@ -2700,10 +3456,10 @@
         <v>37</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -2715,10 +3471,19 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>20240729</v>
       </c>
@@ -2726,10 +3491,10 @@
         <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E87">
         <v>6</v>
@@ -2743,8 +3508,17 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>20240729</v>
       </c>
@@ -2752,10 +3526,10 @@
         <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E88">
         <v>7</v>
@@ -2769,8 +3543,17 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>20240729</v>
       </c>
@@ -2778,10 +3561,10 @@
         <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E89">
         <v>8</v>
@@ -2795,8 +3578,17 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>20240729</v>
       </c>
@@ -2804,10 +3596,10 @@
         <v>37</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E90">
         <v>9</v>
@@ -2821,8 +3613,17 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>20240729</v>
       </c>
@@ -2830,10 +3631,10 @@
         <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E91">
         <v>10</v>
@@ -2845,10 +3646,19 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>20240729</v>
       </c>
@@ -2856,10 +3666,10 @@
         <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E92">
         <v>11</v>
@@ -2873,8 +3683,17 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>20240729</v>
       </c>
@@ -2882,10 +3701,10 @@
         <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E93">
         <v>12</v>
@@ -2899,8 +3718,17 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>20240729</v>
       </c>
@@ -2908,10 +3736,10 @@
         <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E94">
         <v>13</v>
@@ -2925,8 +3753,17 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>20240729</v>
       </c>
@@ -2934,10 +3771,10 @@
         <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E95">
         <v>14</v>
@@ -2951,8 +3788,17 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>20240729</v>
       </c>
@@ -2960,10 +3806,10 @@
         <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E96">
         <v>15</v>
@@ -2977,8 +3823,17 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>20240729</v>
       </c>
@@ -2986,10 +3841,10 @@
         <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E97">
         <v>16</v>
@@ -3001,10 +3856,19 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>20240729</v>
       </c>
@@ -3012,10 +3876,10 @@
         <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E98">
         <v>17</v>
@@ -3029,8 +3893,17 @@
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>20240729</v>
       </c>
@@ -3038,10 +3911,10 @@
         <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E99">
         <v>18</v>
@@ -3055,8 +3928,17 @@
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>20240729</v>
       </c>
@@ -3064,10 +3946,10 @@
         <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E100">
         <v>19</v>
@@ -3081,8 +3963,17 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>20240729</v>
       </c>
@@ -3090,10 +3981,10 @@
         <v>37</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E101">
         <v>20</v>
@@ -3107,8 +3998,17 @@
       <c r="H101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>20240729</v>
       </c>
@@ -3116,10 +4016,10 @@
         <v>37</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E102">
         <v>21</v>
@@ -3128,13 +4028,22 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>20240729</v>
       </c>
@@ -3142,10 +4051,10 @@
         <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E103">
         <v>22</v>
@@ -3154,13 +4063,22 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>20240729</v>
       </c>
@@ -3168,10 +4086,10 @@
         <v>37</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E104">
         <v>23</v>
@@ -3180,13 +4098,22 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>20240729</v>
       </c>
@@ -3194,10 +4121,10 @@
         <v>37</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E105">
         <v>24</v>
@@ -3206,13 +4133,22 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>20240729</v>
       </c>
@@ -3220,10 +4156,10 @@
         <v>37</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E106">
         <v>25</v>
@@ -3232,13 +4168,22 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>20240729</v>
       </c>
@@ -3246,10 +4191,10 @@
         <v>37</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E107">
         <v>26</v>
@@ -3261,10 +4206,19 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>20240729</v>
       </c>
@@ -3272,10 +4226,10 @@
         <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E108">
         <v>27</v>
@@ -3287,10 +4241,19 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>20240729</v>
       </c>
@@ -3298,10 +4261,10 @@
         <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E109">
         <v>28</v>
@@ -3310,13 +4273,22 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>20240729</v>
       </c>
@@ -3324,10 +4296,10 @@
         <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E110">
         <v>29</v>
@@ -3339,10 +4311,19 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>20240729</v>
       </c>
@@ -3350,10 +4331,10 @@
         <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E111">
         <v>30</v>
@@ -3362,13 +4343,22 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>20240729</v>
       </c>
@@ -3376,10 +4366,10 @@
         <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E112">
         <v>31</v>
@@ -3391,10 +4381,19 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>20240729</v>
       </c>
@@ -3402,10 +4401,10 @@
         <v>37</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E113">
         <v>32</v>
@@ -3414,13 +4413,22 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>20240729</v>
       </c>
@@ -3428,10 +4436,10 @@
         <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E114">
         <v>33</v>
@@ -3440,13 +4448,22 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>20240729</v>
       </c>
@@ -3454,10 +4471,10 @@
         <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E115">
         <v>34</v>
@@ -3466,13 +4483,22 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>20240729</v>
       </c>
@@ -3480,10 +4506,10 @@
         <v>37</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E116">
         <v>35</v>
@@ -3495,10 +4521,19 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>20240729</v>
       </c>
@@ -3506,10 +4541,10 @@
         <v>37</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E117">
         <v>36</v>
@@ -3523,8 +4558,17 @@
       <c r="H117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>20240729</v>
       </c>
@@ -3532,10 +4576,10 @@
         <v>37</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E118">
         <v>37</v>
@@ -3544,13 +4588,22 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>20240729</v>
       </c>
@@ -3558,10 +4611,10 @@
         <v>37</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E119">
         <v>38</v>
@@ -3570,13 +4623,22 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>20240729</v>
       </c>
@@ -3584,10 +4646,10 @@
         <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E120">
         <v>39</v>
@@ -3599,10 +4661,19 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>20240729</v>
       </c>
@@ -3610,10 +4681,10 @@
         <v>37</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E121">
         <v>40</v>
@@ -3625,6 +4696,4215 @@
         <v>0</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>20240731</v>
+      </c>
+      <c r="B122">
+        <v>30</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>20240731</v>
+      </c>
+      <c r="B123">
+        <v>30</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>20240731</v>
+      </c>
+      <c r="B124">
+        <v>30</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>20240731</v>
+      </c>
+      <c r="B125">
+        <v>30</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>20240731</v>
+      </c>
+      <c r="B126">
+        <v>30</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>20240731</v>
+      </c>
+      <c r="B127">
+        <v>30</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>20240731</v>
+      </c>
+      <c r="B128">
+        <v>30</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>20240731</v>
+      </c>
+      <c r="B129">
+        <v>30</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>20240731</v>
+      </c>
+      <c r="B130">
+        <v>30</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130">
+        <v>9</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>20240731</v>
+      </c>
+      <c r="B131">
+        <v>30</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>20240731</v>
+      </c>
+      <c r="B132">
+        <v>30</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132">
+        <v>11</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>20240731</v>
+      </c>
+      <c r="B133">
+        <v>30</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133">
+        <v>12</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>20240731</v>
+      </c>
+      <c r="B134">
+        <v>30</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134">
+        <v>13</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>20240731</v>
+      </c>
+      <c r="B135">
+        <v>30</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>14</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>20240731</v>
+      </c>
+      <c r="B136">
+        <v>30</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136">
+        <v>15</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>20240731</v>
+      </c>
+      <c r="B137">
+        <v>30</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137">
+        <v>16</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>20240731</v>
+      </c>
+      <c r="B138">
+        <v>30</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138">
+        <v>17</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>20240731</v>
+      </c>
+      <c r="B139">
+        <v>30</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>20240731</v>
+      </c>
+      <c r="B140">
+        <v>30</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140">
+        <v>19</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>20240731</v>
+      </c>
+      <c r="B141">
+        <v>30</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141">
+        <v>20</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>20240731</v>
+      </c>
+      <c r="B142">
+        <v>30</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142">
+        <v>21</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>20240731</v>
+      </c>
+      <c r="B143">
+        <v>30</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>22</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>20240731</v>
+      </c>
+      <c r="B144">
+        <v>30</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>23</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>20240731</v>
+      </c>
+      <c r="B145">
+        <v>30</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145">
+        <v>24</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>20240731</v>
+      </c>
+      <c r="B146">
+        <v>30</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>25</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>20240731</v>
+      </c>
+      <c r="B147">
+        <v>30</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147">
+        <v>26</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>20240731</v>
+      </c>
+      <c r="B148">
+        <v>30</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148">
+        <v>27</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>20240731</v>
+      </c>
+      <c r="B149">
+        <v>30</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149">
+        <v>28</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>20240731</v>
+      </c>
+      <c r="B150">
+        <v>30</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150">
+        <v>29</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>20240731</v>
+      </c>
+      <c r="B151">
+        <v>30</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151">
+        <v>30</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>20240731</v>
+      </c>
+      <c r="B152">
+        <v>30</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152">
+        <v>31</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>20240731</v>
+      </c>
+      <c r="B153">
+        <v>30</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153">
+        <v>32</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>20240731</v>
+      </c>
+      <c r="B154">
+        <v>30</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154">
+        <v>33</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>20240731</v>
+      </c>
+      <c r="B155">
+        <v>30</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155">
+        <v>34</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>20240731</v>
+      </c>
+      <c r="B156">
+        <v>30</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156">
+        <v>35</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>20240731</v>
+      </c>
+      <c r="B157">
+        <v>30</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157">
+        <v>36</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>20240731</v>
+      </c>
+      <c r="B158">
+        <v>30</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158">
+        <v>37</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>20240731</v>
+      </c>
+      <c r="B159">
+        <v>30</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159">
+        <v>38</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>20240731</v>
+      </c>
+      <c r="B160">
+        <v>30</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160">
+        <v>39</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>20240731</v>
+      </c>
+      <c r="B161">
+        <v>30</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161">
+        <v>40</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>20240801</v>
+      </c>
+      <c r="B162">
+        <v>75</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>20240801</v>
+      </c>
+      <c r="B163">
+        <v>75</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>20240801</v>
+      </c>
+      <c r="B164">
+        <v>75</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>20240801</v>
+      </c>
+      <c r="B165">
+        <v>75</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165">
+        <v>4</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>20240801</v>
+      </c>
+      <c r="B166">
+        <v>75</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>20240801</v>
+      </c>
+      <c r="B167">
+        <v>75</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167">
+        <v>6</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>20240801</v>
+      </c>
+      <c r="B168">
+        <v>75</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168">
+        <v>7</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>20240801</v>
+      </c>
+      <c r="B169">
+        <v>75</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169">
+        <v>8</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>20240801</v>
+      </c>
+      <c r="B170">
+        <v>75</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170">
+        <v>9</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>20240801</v>
+      </c>
+      <c r="B171">
+        <v>75</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171">
+        <v>10</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>20240801</v>
+      </c>
+      <c r="B172">
+        <v>75</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172">
+        <v>11</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>20240801</v>
+      </c>
+      <c r="B173">
+        <v>75</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173">
+        <v>12</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>20240801</v>
+      </c>
+      <c r="B174">
+        <v>75</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174">
+        <v>13</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>20240801</v>
+      </c>
+      <c r="B175">
+        <v>75</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175">
+        <v>14</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>20240801</v>
+      </c>
+      <c r="B176">
+        <v>75</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176">
+        <v>15</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>20240801</v>
+      </c>
+      <c r="B177">
+        <v>75</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177">
+        <v>16</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>20240801</v>
+      </c>
+      <c r="B178">
+        <v>75</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178">
+        <v>17</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>20240801</v>
+      </c>
+      <c r="B179">
+        <v>75</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179">
+        <v>18</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>20240801</v>
+      </c>
+      <c r="B180">
+        <v>75</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180">
+        <v>19</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>20240801</v>
+      </c>
+      <c r="B181">
+        <v>75</v>
+      </c>
+      <c r="C181" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181">
+        <v>20</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>20240801</v>
+      </c>
+      <c r="B182">
+        <v>75</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182">
+        <v>21</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>20240801</v>
+      </c>
+      <c r="B183">
+        <v>75</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183">
+        <v>22</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>20240801</v>
+      </c>
+      <c r="B184">
+        <v>75</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184">
+        <v>23</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>20240801</v>
+      </c>
+      <c r="B185">
+        <v>75</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185">
+        <v>24</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>20240801</v>
+      </c>
+      <c r="B186">
+        <v>75</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186">
+        <v>25</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>20240801</v>
+      </c>
+      <c r="B187">
+        <v>75</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187">
+        <v>26</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>20240801</v>
+      </c>
+      <c r="B188">
+        <v>75</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188">
+        <v>27</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>20240801</v>
+      </c>
+      <c r="B189">
+        <v>75</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189">
+        <v>28</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>20240801</v>
+      </c>
+      <c r="B190">
+        <v>75</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190">
+        <v>29</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>20240801</v>
+      </c>
+      <c r="B191">
+        <v>75</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191">
+        <v>30</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>20240801</v>
+      </c>
+      <c r="B192">
+        <v>75</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192">
+        <v>31</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>20240801</v>
+      </c>
+      <c r="B193">
+        <v>75</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193">
+        <v>32</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>20240801</v>
+      </c>
+      <c r="B194">
+        <v>75</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194">
+        <v>33</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>20240801</v>
+      </c>
+      <c r="B195">
+        <v>75</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195">
+        <v>34</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>20240801</v>
+      </c>
+      <c r="B196">
+        <v>75</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196">
+        <v>35</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>20240801</v>
+      </c>
+      <c r="B197">
+        <v>75</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197">
+        <v>36</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>20240801</v>
+      </c>
+      <c r="B198">
+        <v>75</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198">
+        <v>37</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>20240801</v>
+      </c>
+      <c r="B199">
+        <v>75</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199">
+        <v>38</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>20240801</v>
+      </c>
+      <c r="B200">
+        <v>75</v>
+      </c>
+      <c r="C200" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200">
+        <v>39</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>20240801</v>
+      </c>
+      <c r="B201">
+        <v>75</v>
+      </c>
+      <c r="C201" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201">
+        <v>40</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>20240805</v>
+      </c>
+      <c r="B202">
+        <v>50</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>20240805</v>
+      </c>
+      <c r="B203">
+        <v>50</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>20240805</v>
+      </c>
+      <c r="B204">
+        <v>50</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204">
+        <v>3</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>20240805</v>
+      </c>
+      <c r="B205">
+        <v>50</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205">
+        <v>4</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>20240805</v>
+      </c>
+      <c r="B206">
+        <v>50</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206">
+        <v>5</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>20240805</v>
+      </c>
+      <c r="B207">
+        <v>50</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207">
+        <v>6</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>20240805</v>
+      </c>
+      <c r="B208">
+        <v>50</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208">
+        <v>7</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>20240805</v>
+      </c>
+      <c r="B209">
+        <v>50</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209">
+        <v>8</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>20240805</v>
+      </c>
+      <c r="B210">
+        <v>50</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210">
+        <v>9</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>20240805</v>
+      </c>
+      <c r="B211">
+        <v>50</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211">
+        <v>10</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>20240805</v>
+      </c>
+      <c r="B212">
+        <v>50</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212">
+        <v>11</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>20240805</v>
+      </c>
+      <c r="B213">
+        <v>50</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213">
+        <v>12</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>20240805</v>
+      </c>
+      <c r="B214">
+        <v>50</v>
+      </c>
+      <c r="C214" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214">
+        <v>13</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>20240805</v>
+      </c>
+      <c r="B215">
+        <v>50</v>
+      </c>
+      <c r="C215" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215">
+        <v>14</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>20240805</v>
+      </c>
+      <c r="B216">
+        <v>50</v>
+      </c>
+      <c r="C216" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216">
+        <v>15</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>20240805</v>
+      </c>
+      <c r="B217">
+        <v>50</v>
+      </c>
+      <c r="C217" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217">
+        <v>16</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>20240805</v>
+      </c>
+      <c r="B218">
+        <v>50</v>
+      </c>
+      <c r="C218" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218">
+        <v>17</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>20240805</v>
+      </c>
+      <c r="B219">
+        <v>50</v>
+      </c>
+      <c r="C219" t="s">
+        <v>16</v>
+      </c>
+      <c r="D219" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219">
+        <v>18</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>20240805</v>
+      </c>
+      <c r="B220">
+        <v>50</v>
+      </c>
+      <c r="C220" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220">
+        <v>19</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>20240805</v>
+      </c>
+      <c r="B221">
+        <v>50</v>
+      </c>
+      <c r="C221" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221">
+        <v>20</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>20240805</v>
+      </c>
+      <c r="B222">
+        <v>50</v>
+      </c>
+      <c r="C222" t="s">
+        <v>16</v>
+      </c>
+      <c r="D222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222">
+        <v>21</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>20240805</v>
+      </c>
+      <c r="B223">
+        <v>50</v>
+      </c>
+      <c r="C223" t="s">
+        <v>16</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223">
+        <v>22</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>20240805</v>
+      </c>
+      <c r="B224">
+        <v>50</v>
+      </c>
+      <c r="C224" t="s">
+        <v>16</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224">
+        <v>23</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>20240805</v>
+      </c>
+      <c r="B225">
+        <v>50</v>
+      </c>
+      <c r="C225" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225">
+        <v>24</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>20240805</v>
+      </c>
+      <c r="B226">
+        <v>50</v>
+      </c>
+      <c r="C226" t="s">
+        <v>16</v>
+      </c>
+      <c r="D226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226">
+        <v>25</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>20240805</v>
+      </c>
+      <c r="B227">
+        <v>50</v>
+      </c>
+      <c r="C227" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227">
+        <v>26</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>20240805</v>
+      </c>
+      <c r="B228">
+        <v>50</v>
+      </c>
+      <c r="C228" t="s">
+        <v>16</v>
+      </c>
+      <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228">
+        <v>27</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>20240805</v>
+      </c>
+      <c r="B229">
+        <v>50</v>
+      </c>
+      <c r="C229" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229">
+        <v>28</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>20240805</v>
+      </c>
+      <c r="B230">
+        <v>50</v>
+      </c>
+      <c r="C230" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230">
+        <v>29</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>20240805</v>
+      </c>
+      <c r="B231">
+        <v>50</v>
+      </c>
+      <c r="C231" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231">
+        <v>30</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>20240805</v>
+      </c>
+      <c r="B232">
+        <v>50</v>
+      </c>
+      <c r="C232" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232">
+        <v>31</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>20240805</v>
+      </c>
+      <c r="B233">
+        <v>50</v>
+      </c>
+      <c r="C233" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233">
+        <v>32</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>20240805</v>
+      </c>
+      <c r="B234">
+        <v>50</v>
+      </c>
+      <c r="C234" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234">
+        <v>33</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>20240805</v>
+      </c>
+      <c r="B235">
+        <v>50</v>
+      </c>
+      <c r="C235" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235">
+        <v>34</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>20240805</v>
+      </c>
+      <c r="B236">
+        <v>50</v>
+      </c>
+      <c r="C236" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236">
+        <v>35</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>20240805</v>
+      </c>
+      <c r="B237">
+        <v>50</v>
+      </c>
+      <c r="C237" t="s">
+        <v>16</v>
+      </c>
+      <c r="D237" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237">
+        <v>36</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>20240805</v>
+      </c>
+      <c r="B238">
+        <v>50</v>
+      </c>
+      <c r="C238" t="s">
+        <v>16</v>
+      </c>
+      <c r="D238" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238">
+        <v>37</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>20240805</v>
+      </c>
+      <c r="B239">
+        <v>50</v>
+      </c>
+      <c r="C239" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239">
+        <v>38</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>20240805</v>
+      </c>
+      <c r="B240">
+        <v>50</v>
+      </c>
+      <c r="C240" t="s">
+        <v>16</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240">
+        <v>39</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>20240805</v>
+      </c>
+      <c r="B241">
+        <v>50</v>
+      </c>
+      <c r="C241" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241">
+        <v>40</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
         <v>0</v>
       </c>
     </row>
@@ -3645,32 +8925,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/survival/survival_resazurin.xlsx
+++ b/data/survival/survival_resazurin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/10K-seed-Cgigas/data/survival/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D232083D-93FC-FB4C-95AD-9E9424BB8FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C3866-881D-9B4E-9A30-4C9A6682F415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33000" yWindow="-1460" windowWidth="30280" windowHeight="19380" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
+    <workbookView xWindow="2720" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="17">
   <si>
     <t>date.resazurin</t>
   </si>
@@ -459,11 +459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE0A6E7-C44F-C349-A3CE-3BF585EE18ED}">
-  <dimension ref="A1:K241"/>
+  <dimension ref="A1:K321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K300" sqref="K300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8906,6 +8906,2806 @@
       </c>
       <c r="K241">
         <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>20240807</v>
+      </c>
+      <c r="B242">
+        <v>47</v>
+      </c>
+      <c r="C242" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>11</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>20240807</v>
+      </c>
+      <c r="B243">
+        <v>47</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>11</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>20240807</v>
+      </c>
+      <c r="B244">
+        <v>47</v>
+      </c>
+      <c r="C244" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244">
+        <v>3</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>20240807</v>
+      </c>
+      <c r="B245">
+        <v>47</v>
+      </c>
+      <c r="C245" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245">
+        <v>4</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>20240807</v>
+      </c>
+      <c r="B246">
+        <v>47</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>11</v>
+      </c>
+      <c r="E246">
+        <v>5</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>20240807</v>
+      </c>
+      <c r="B247">
+        <v>47</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>11</v>
+      </c>
+      <c r="E247">
+        <v>6</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>20240807</v>
+      </c>
+      <c r="B248">
+        <v>47</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>11</v>
+      </c>
+      <c r="E248">
+        <v>7</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>20240807</v>
+      </c>
+      <c r="B249">
+        <v>47</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249">
+        <v>8</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>20240807</v>
+      </c>
+      <c r="B250">
+        <v>47</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" t="s">
+        <v>11</v>
+      </c>
+      <c r="E250">
+        <v>9</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>20240807</v>
+      </c>
+      <c r="B251">
+        <v>47</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251">
+        <v>10</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>20240807</v>
+      </c>
+      <c r="B252">
+        <v>47</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252">
+        <v>11</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>20240807</v>
+      </c>
+      <c r="B253">
+        <v>47</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>11</v>
+      </c>
+      <c r="E253">
+        <v>12</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>20240807</v>
+      </c>
+      <c r="B254">
+        <v>47</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>11</v>
+      </c>
+      <c r="E254">
+        <v>13</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>20240807</v>
+      </c>
+      <c r="B255">
+        <v>47</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255">
+        <v>14</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>20240807</v>
+      </c>
+      <c r="B256">
+        <v>47</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256">
+        <v>15</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>20240807</v>
+      </c>
+      <c r="B257">
+        <v>47</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257">
+        <v>16</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>20240807</v>
+      </c>
+      <c r="B258">
+        <v>47</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>11</v>
+      </c>
+      <c r="E258">
+        <v>17</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>20240807</v>
+      </c>
+      <c r="B259">
+        <v>47</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>11</v>
+      </c>
+      <c r="E259">
+        <v>18</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>20240807</v>
+      </c>
+      <c r="B260">
+        <v>47</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260">
+        <v>19</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>20240807</v>
+      </c>
+      <c r="B261">
+        <v>47</v>
+      </c>
+      <c r="C261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261">
+        <v>20</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>20240807</v>
+      </c>
+      <c r="B262">
+        <v>47</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262">
+        <v>21</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>20240807</v>
+      </c>
+      <c r="B263">
+        <v>47</v>
+      </c>
+      <c r="C263" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263">
+        <v>22</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>20240807</v>
+      </c>
+      <c r="B264">
+        <v>47</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264">
+        <v>23</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>20240807</v>
+      </c>
+      <c r="B265">
+        <v>47</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265">
+        <v>24</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>20240807</v>
+      </c>
+      <c r="B266">
+        <v>47</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266">
+        <v>25</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>20240807</v>
+      </c>
+      <c r="B267">
+        <v>47</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267">
+        <v>26</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>20240807</v>
+      </c>
+      <c r="B268">
+        <v>47</v>
+      </c>
+      <c r="C268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268">
+        <v>27</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>20240807</v>
+      </c>
+      <c r="B269">
+        <v>47</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269">
+        <v>28</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>20240807</v>
+      </c>
+      <c r="B270">
+        <v>47</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270">
+        <v>29</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>20240807</v>
+      </c>
+      <c r="B271">
+        <v>47</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271">
+        <v>30</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>20240807</v>
+      </c>
+      <c r="B272">
+        <v>47</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272">
+        <v>31</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>20240807</v>
+      </c>
+      <c r="B273">
+        <v>47</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273">
+        <v>32</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>20240807</v>
+      </c>
+      <c r="B274">
+        <v>47</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274">
+        <v>33</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>20240807</v>
+      </c>
+      <c r="B275">
+        <v>47</v>
+      </c>
+      <c r="C275" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275">
+        <v>34</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>20240807</v>
+      </c>
+      <c r="B276">
+        <v>47</v>
+      </c>
+      <c r="C276" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276">
+        <v>35</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>20240807</v>
+      </c>
+      <c r="B277">
+        <v>47</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277">
+        <v>36</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>20240807</v>
+      </c>
+      <c r="B278">
+        <v>47</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278">
+        <v>37</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>20240807</v>
+      </c>
+      <c r="B279">
+        <v>47</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279">
+        <v>38</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>20240807</v>
+      </c>
+      <c r="B280">
+        <v>47</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280">
+        <v>39</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>20240807</v>
+      </c>
+      <c r="B281">
+        <v>47</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281">
+        <v>40</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>20240808</v>
+      </c>
+      <c r="B282">
+        <v>56</v>
+      </c>
+      <c r="C282" t="s">
+        <v>14</v>
+      </c>
+      <c r="D282" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>20240808</v>
+      </c>
+      <c r="B283">
+        <v>56</v>
+      </c>
+      <c r="C283" t="s">
+        <v>14</v>
+      </c>
+      <c r="D283" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>20240808</v>
+      </c>
+      <c r="B284">
+        <v>56</v>
+      </c>
+      <c r="C284" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" t="s">
+        <v>11</v>
+      </c>
+      <c r="E284">
+        <v>3</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>20240808</v>
+      </c>
+      <c r="B285">
+        <v>56</v>
+      </c>
+      <c r="C285" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285">
+        <v>4</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>20240808</v>
+      </c>
+      <c r="B286">
+        <v>56</v>
+      </c>
+      <c r="C286" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" t="s">
+        <v>11</v>
+      </c>
+      <c r="E286">
+        <v>5</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>20240808</v>
+      </c>
+      <c r="B287">
+        <v>56</v>
+      </c>
+      <c r="C287" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" t="s">
+        <v>11</v>
+      </c>
+      <c r="E287">
+        <v>6</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>20240808</v>
+      </c>
+      <c r="B288">
+        <v>56</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" t="s">
+        <v>11</v>
+      </c>
+      <c r="E288">
+        <v>7</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>20240808</v>
+      </c>
+      <c r="B289">
+        <v>56</v>
+      </c>
+      <c r="C289" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289">
+        <v>8</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>20240808</v>
+      </c>
+      <c r="B290">
+        <v>56</v>
+      </c>
+      <c r="C290" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290">
+        <v>9</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>20240808</v>
+      </c>
+      <c r="B291">
+        <v>56</v>
+      </c>
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291">
+        <v>10</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>20240808</v>
+      </c>
+      <c r="B292">
+        <v>56</v>
+      </c>
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" t="s">
+        <v>11</v>
+      </c>
+      <c r="E292">
+        <v>11</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>20240808</v>
+      </c>
+      <c r="B293">
+        <v>56</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293">
+        <v>12</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>20240808</v>
+      </c>
+      <c r="B294">
+        <v>56</v>
+      </c>
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" t="s">
+        <v>11</v>
+      </c>
+      <c r="E294">
+        <v>13</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>20240808</v>
+      </c>
+      <c r="B295">
+        <v>56</v>
+      </c>
+      <c r="C295" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" t="s">
+        <v>11</v>
+      </c>
+      <c r="E295">
+        <v>14</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>20240808</v>
+      </c>
+      <c r="B296">
+        <v>56</v>
+      </c>
+      <c r="C296" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296">
+        <v>15</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>20240808</v>
+      </c>
+      <c r="B297">
+        <v>56</v>
+      </c>
+      <c r="C297" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297">
+        <v>16</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>20240808</v>
+      </c>
+      <c r="B298">
+        <v>56</v>
+      </c>
+      <c r="C298" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" t="s">
+        <v>11</v>
+      </c>
+      <c r="E298">
+        <v>17</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>20240808</v>
+      </c>
+      <c r="B299">
+        <v>56</v>
+      </c>
+      <c r="C299" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299">
+        <v>18</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>20240808</v>
+      </c>
+      <c r="B300">
+        <v>56</v>
+      </c>
+      <c r="C300" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300">
+        <v>19</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>20240808</v>
+      </c>
+      <c r="B301">
+        <v>56</v>
+      </c>
+      <c r="C301" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301">
+        <v>20</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>20240808</v>
+      </c>
+      <c r="B302">
+        <v>56</v>
+      </c>
+      <c r="C302" t="s">
+        <v>14</v>
+      </c>
+      <c r="D302" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302">
+        <v>21</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>20240808</v>
+      </c>
+      <c r="B303">
+        <v>56</v>
+      </c>
+      <c r="C303" t="s">
+        <v>14</v>
+      </c>
+      <c r="D303" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303">
+        <v>22</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>1</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>20240808</v>
+      </c>
+      <c r="B304">
+        <v>56</v>
+      </c>
+      <c r="C304" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" t="s">
+        <v>12</v>
+      </c>
+      <c r="E304">
+        <v>23</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>20240808</v>
+      </c>
+      <c r="B305">
+        <v>56</v>
+      </c>
+      <c r="C305" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" t="s">
+        <v>12</v>
+      </c>
+      <c r="E305">
+        <v>24</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>20240808</v>
+      </c>
+      <c r="B306">
+        <v>56</v>
+      </c>
+      <c r="C306" t="s">
+        <v>14</v>
+      </c>
+      <c r="D306" t="s">
+        <v>12</v>
+      </c>
+      <c r="E306">
+        <v>25</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>20240808</v>
+      </c>
+      <c r="B307">
+        <v>56</v>
+      </c>
+      <c r="C307" t="s">
+        <v>14</v>
+      </c>
+      <c r="D307" t="s">
+        <v>12</v>
+      </c>
+      <c r="E307">
+        <v>26</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>20240808</v>
+      </c>
+      <c r="B308">
+        <v>56</v>
+      </c>
+      <c r="C308" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" t="s">
+        <v>12</v>
+      </c>
+      <c r="E308">
+        <v>27</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>20240808</v>
+      </c>
+      <c r="B309">
+        <v>56</v>
+      </c>
+      <c r="C309" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" t="s">
+        <v>12</v>
+      </c>
+      <c r="E309">
+        <v>28</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>20240808</v>
+      </c>
+      <c r="B310">
+        <v>56</v>
+      </c>
+      <c r="C310" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310" t="s">
+        <v>12</v>
+      </c>
+      <c r="E310">
+        <v>29</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>20240808</v>
+      </c>
+      <c r="B311">
+        <v>56</v>
+      </c>
+      <c r="C311" t="s">
+        <v>14</v>
+      </c>
+      <c r="D311" t="s">
+        <v>12</v>
+      </c>
+      <c r="E311">
+        <v>30</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>20240808</v>
+      </c>
+      <c r="B312">
+        <v>56</v>
+      </c>
+      <c r="C312" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312">
+        <v>31</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>20240808</v>
+      </c>
+      <c r="B313">
+        <v>56</v>
+      </c>
+      <c r="C313" t="s">
+        <v>14</v>
+      </c>
+      <c r="D313" t="s">
+        <v>12</v>
+      </c>
+      <c r="E313">
+        <v>32</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>20240808</v>
+      </c>
+      <c r="B314">
+        <v>56</v>
+      </c>
+      <c r="C314" t="s">
+        <v>14</v>
+      </c>
+      <c r="D314" t="s">
+        <v>12</v>
+      </c>
+      <c r="E314">
+        <v>33</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314">
+        <v>1</v>
+      </c>
+      <c r="K314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>20240808</v>
+      </c>
+      <c r="B315">
+        <v>56</v>
+      </c>
+      <c r="C315" t="s">
+        <v>14</v>
+      </c>
+      <c r="D315" t="s">
+        <v>12</v>
+      </c>
+      <c r="E315">
+        <v>34</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+      <c r="K315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>20240808</v>
+      </c>
+      <c r="B316">
+        <v>56</v>
+      </c>
+      <c r="C316" t="s">
+        <v>14</v>
+      </c>
+      <c r="D316" t="s">
+        <v>12</v>
+      </c>
+      <c r="E316">
+        <v>35</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+      <c r="K316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>20240808</v>
+      </c>
+      <c r="B317">
+        <v>56</v>
+      </c>
+      <c r="C317" t="s">
+        <v>14</v>
+      </c>
+      <c r="D317" t="s">
+        <v>12</v>
+      </c>
+      <c r="E317">
+        <v>36</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+      <c r="I317">
+        <v>1</v>
+      </c>
+      <c r="J317">
+        <v>1</v>
+      </c>
+      <c r="K317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>20240808</v>
+      </c>
+      <c r="B318">
+        <v>56</v>
+      </c>
+      <c r="C318" t="s">
+        <v>14</v>
+      </c>
+      <c r="D318" t="s">
+        <v>12</v>
+      </c>
+      <c r="E318">
+        <v>37</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>1</v>
+      </c>
+      <c r="J318">
+        <v>1</v>
+      </c>
+      <c r="K318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>20240808</v>
+      </c>
+      <c r="B319">
+        <v>56</v>
+      </c>
+      <c r="C319" t="s">
+        <v>14</v>
+      </c>
+      <c r="D319" t="s">
+        <v>12</v>
+      </c>
+      <c r="E319">
+        <v>38</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>1</v>
+      </c>
+      <c r="K319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>20240808</v>
+      </c>
+      <c r="B320">
+        <v>56</v>
+      </c>
+      <c r="C320" t="s">
+        <v>14</v>
+      </c>
+      <c r="D320" t="s">
+        <v>12</v>
+      </c>
+      <c r="E320">
+        <v>39</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>1</v>
+      </c>
+      <c r="K320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>20240808</v>
+      </c>
+      <c r="B321">
+        <v>56</v>
+      </c>
+      <c r="C321" t="s">
+        <v>14</v>
+      </c>
+      <c r="D321" t="s">
+        <v>12</v>
+      </c>
+      <c r="E321">
+        <v>40</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/survival/survival_resazurin.xlsx
+++ b/data/survival/survival_resazurin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/10K-seed-Cgigas/data/survival/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C3866-881D-9B4E-9A30-4C9A6682F415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6C1C3D-CF74-A744-8733-A060CF53787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
+    <workbookView xWindow="460" yWindow="760" windowWidth="18160" windowHeight="17720" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="17">
   <si>
     <t>date.resazurin</t>
   </si>
@@ -459,11 +459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE0A6E7-C44F-C349-A3CE-3BF585EE18ED}">
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:K361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K300" sqref="K300"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K355" sqref="K355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11705,6 +11705,1406 @@
         <v>0</v>
       </c>
       <c r="K321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>20240812</v>
+      </c>
+      <c r="B322">
+        <v>36</v>
+      </c>
+      <c r="C322" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>20240812</v>
+      </c>
+      <c r="B323">
+        <v>36</v>
+      </c>
+      <c r="C323" t="s">
+        <v>13</v>
+      </c>
+      <c r="D323" t="s">
+        <v>11</v>
+      </c>
+      <c r="E323">
+        <v>2</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>20240812</v>
+      </c>
+      <c r="B324">
+        <v>36</v>
+      </c>
+      <c r="C324" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324">
+        <v>3</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>20240812</v>
+      </c>
+      <c r="B325">
+        <v>36</v>
+      </c>
+      <c r="C325" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325" t="s">
+        <v>11</v>
+      </c>
+      <c r="E325">
+        <v>4</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>20240812</v>
+      </c>
+      <c r="B326">
+        <v>36</v>
+      </c>
+      <c r="C326" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326" t="s">
+        <v>11</v>
+      </c>
+      <c r="E326">
+        <v>5</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>20240812</v>
+      </c>
+      <c r="B327">
+        <v>36</v>
+      </c>
+      <c r="C327" t="s">
+        <v>13</v>
+      </c>
+      <c r="D327" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327">
+        <v>6</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>20240812</v>
+      </c>
+      <c r="B328">
+        <v>36</v>
+      </c>
+      <c r="C328" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" t="s">
+        <v>11</v>
+      </c>
+      <c r="E328">
+        <v>7</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>20240812</v>
+      </c>
+      <c r="B329">
+        <v>36</v>
+      </c>
+      <c r="C329" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329">
+        <v>8</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>20240812</v>
+      </c>
+      <c r="B330">
+        <v>36</v>
+      </c>
+      <c r="C330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" t="s">
+        <v>11</v>
+      </c>
+      <c r="E330">
+        <v>9</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>20240812</v>
+      </c>
+      <c r="B331">
+        <v>36</v>
+      </c>
+      <c r="C331" t="s">
+        <v>13</v>
+      </c>
+      <c r="D331" t="s">
+        <v>11</v>
+      </c>
+      <c r="E331">
+        <v>10</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>20240812</v>
+      </c>
+      <c r="B332">
+        <v>36</v>
+      </c>
+      <c r="C332" t="s">
+        <v>13</v>
+      </c>
+      <c r="D332" t="s">
+        <v>11</v>
+      </c>
+      <c r="E332">
+        <v>11</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>1</v>
+      </c>
+      <c r="K332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>20240812</v>
+      </c>
+      <c r="B333">
+        <v>36</v>
+      </c>
+      <c r="C333" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333" t="s">
+        <v>11</v>
+      </c>
+      <c r="E333">
+        <v>12</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+      <c r="K333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>20240812</v>
+      </c>
+      <c r="B334">
+        <v>36</v>
+      </c>
+      <c r="C334" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" t="s">
+        <v>11</v>
+      </c>
+      <c r="E334">
+        <v>13</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>20240812</v>
+      </c>
+      <c r="B335">
+        <v>36</v>
+      </c>
+      <c r="C335" t="s">
+        <v>13</v>
+      </c>
+      <c r="D335" t="s">
+        <v>11</v>
+      </c>
+      <c r="E335">
+        <v>14</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>1</v>
+      </c>
+      <c r="K335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>20240812</v>
+      </c>
+      <c r="B336">
+        <v>36</v>
+      </c>
+      <c r="C336" t="s">
+        <v>13</v>
+      </c>
+      <c r="D336" t="s">
+        <v>11</v>
+      </c>
+      <c r="E336">
+        <v>15</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>20240812</v>
+      </c>
+      <c r="B337">
+        <v>36</v>
+      </c>
+      <c r="C337" t="s">
+        <v>13</v>
+      </c>
+      <c r="D337" t="s">
+        <v>11</v>
+      </c>
+      <c r="E337">
+        <v>16</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>20240812</v>
+      </c>
+      <c r="B338">
+        <v>36</v>
+      </c>
+      <c r="C338" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" t="s">
+        <v>11</v>
+      </c>
+      <c r="E338">
+        <v>17</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>20240812</v>
+      </c>
+      <c r="B339">
+        <v>36</v>
+      </c>
+      <c r="C339" t="s">
+        <v>13</v>
+      </c>
+      <c r="D339" t="s">
+        <v>11</v>
+      </c>
+      <c r="E339">
+        <v>18</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>20240812</v>
+      </c>
+      <c r="B340">
+        <v>36</v>
+      </c>
+      <c r="C340" t="s">
+        <v>13</v>
+      </c>
+      <c r="D340" t="s">
+        <v>11</v>
+      </c>
+      <c r="E340">
+        <v>19</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>20240812</v>
+      </c>
+      <c r="B341">
+        <v>36</v>
+      </c>
+      <c r="C341" t="s">
+        <v>13</v>
+      </c>
+      <c r="D341" t="s">
+        <v>11</v>
+      </c>
+      <c r="E341">
+        <v>20</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>20240812</v>
+      </c>
+      <c r="B342">
+        <v>36</v>
+      </c>
+      <c r="C342" t="s">
+        <v>13</v>
+      </c>
+      <c r="D342" t="s">
+        <v>12</v>
+      </c>
+      <c r="E342">
+        <v>21</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>20240812</v>
+      </c>
+      <c r="B343">
+        <v>36</v>
+      </c>
+      <c r="C343" t="s">
+        <v>13</v>
+      </c>
+      <c r="D343" t="s">
+        <v>12</v>
+      </c>
+      <c r="E343">
+        <v>22</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>20240812</v>
+      </c>
+      <c r="B344">
+        <v>36</v>
+      </c>
+      <c r="C344" t="s">
+        <v>13</v>
+      </c>
+      <c r="D344" t="s">
+        <v>12</v>
+      </c>
+      <c r="E344">
+        <v>23</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344">
+        <v>1</v>
+      </c>
+      <c r="K344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>20240812</v>
+      </c>
+      <c r="B345">
+        <v>36</v>
+      </c>
+      <c r="C345" t="s">
+        <v>13</v>
+      </c>
+      <c r="D345" t="s">
+        <v>12</v>
+      </c>
+      <c r="E345">
+        <v>24</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345">
+        <v>1</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+      <c r="K345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>20240812</v>
+      </c>
+      <c r="B346">
+        <v>36</v>
+      </c>
+      <c r="C346" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" t="s">
+        <v>12</v>
+      </c>
+      <c r="E346">
+        <v>25</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>20240812</v>
+      </c>
+      <c r="B347">
+        <v>36</v>
+      </c>
+      <c r="C347" t="s">
+        <v>13</v>
+      </c>
+      <c r="D347" t="s">
+        <v>12</v>
+      </c>
+      <c r="E347">
+        <v>26</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>20240812</v>
+      </c>
+      <c r="B348">
+        <v>36</v>
+      </c>
+      <c r="C348" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348" t="s">
+        <v>12</v>
+      </c>
+      <c r="E348">
+        <v>27</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>20240812</v>
+      </c>
+      <c r="B349">
+        <v>36</v>
+      </c>
+      <c r="C349" t="s">
+        <v>13</v>
+      </c>
+      <c r="D349" t="s">
+        <v>12</v>
+      </c>
+      <c r="E349">
+        <v>28</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+      <c r="K349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>20240812</v>
+      </c>
+      <c r="B350">
+        <v>36</v>
+      </c>
+      <c r="C350" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" t="s">
+        <v>12</v>
+      </c>
+      <c r="E350">
+        <v>29</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>20240812</v>
+      </c>
+      <c r="B351">
+        <v>36</v>
+      </c>
+      <c r="C351" t="s">
+        <v>13</v>
+      </c>
+      <c r="D351" t="s">
+        <v>12</v>
+      </c>
+      <c r="E351">
+        <v>30</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>20240812</v>
+      </c>
+      <c r="B352">
+        <v>36</v>
+      </c>
+      <c r="C352" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" t="s">
+        <v>12</v>
+      </c>
+      <c r="E352">
+        <v>31</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>20240812</v>
+      </c>
+      <c r="B353">
+        <v>36</v>
+      </c>
+      <c r="C353" t="s">
+        <v>13</v>
+      </c>
+      <c r="D353" t="s">
+        <v>12</v>
+      </c>
+      <c r="E353">
+        <v>32</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>20240812</v>
+      </c>
+      <c r="B354">
+        <v>36</v>
+      </c>
+      <c r="C354" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" t="s">
+        <v>12</v>
+      </c>
+      <c r="E354">
+        <v>33</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>1</v>
+      </c>
+      <c r="K354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>20240812</v>
+      </c>
+      <c r="B355">
+        <v>36</v>
+      </c>
+      <c r="C355" t="s">
+        <v>13</v>
+      </c>
+      <c r="D355" t="s">
+        <v>12</v>
+      </c>
+      <c r="E355">
+        <v>34</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>20240812</v>
+      </c>
+      <c r="B356">
+        <v>36</v>
+      </c>
+      <c r="C356" t="s">
+        <v>13</v>
+      </c>
+      <c r="D356" t="s">
+        <v>12</v>
+      </c>
+      <c r="E356">
+        <v>35</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>1</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>20240812</v>
+      </c>
+      <c r="B357">
+        <v>36</v>
+      </c>
+      <c r="C357" t="s">
+        <v>13</v>
+      </c>
+      <c r="D357" t="s">
+        <v>12</v>
+      </c>
+      <c r="E357">
+        <v>36</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>1</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>1</v>
+      </c>
+      <c r="K357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>20240812</v>
+      </c>
+      <c r="B358">
+        <v>36</v>
+      </c>
+      <c r="C358" t="s">
+        <v>13</v>
+      </c>
+      <c r="D358" t="s">
+        <v>12</v>
+      </c>
+      <c r="E358">
+        <v>37</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>1</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+      <c r="K358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>20240812</v>
+      </c>
+      <c r="B359">
+        <v>36</v>
+      </c>
+      <c r="C359" t="s">
+        <v>13</v>
+      </c>
+      <c r="D359" t="s">
+        <v>12</v>
+      </c>
+      <c r="E359">
+        <v>38</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>20240812</v>
+      </c>
+      <c r="B360">
+        <v>36</v>
+      </c>
+      <c r="C360" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" t="s">
+        <v>12</v>
+      </c>
+      <c r="E360">
+        <v>39</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+      <c r="K360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>20240812</v>
+      </c>
+      <c r="B361">
+        <v>36</v>
+      </c>
+      <c r="C361" t="s">
+        <v>13</v>
+      </c>
+      <c r="D361" t="s">
+        <v>12</v>
+      </c>
+      <c r="E361">
+        <v>40</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+      <c r="K361">
         <v>1</v>
       </c>
     </row>

--- a/data/survival/survival_resazurin.xlsx
+++ b/data/survival/survival_resazurin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/10K-seed-Cgigas/data/survival/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6C1C3D-CF74-A744-8733-A060CF53787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474F4954-B4C6-4F41-910B-C164FD376379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="760" windowWidth="18160" windowHeight="17720" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
+    <workbookView xWindow="-620" yWindow="760" windowWidth="18160" windowHeight="17720" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="17">
   <si>
     <t>date.resazurin</t>
   </si>
@@ -459,11 +459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE0A6E7-C44F-C349-A3CE-3BF585EE18ED}">
-  <dimension ref="A1:K361"/>
+  <dimension ref="A1:K401"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K355" sqref="K355"/>
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K401" sqref="K401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13105,6 +13105,1406 @@
         <v>1</v>
       </c>
       <c r="K361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>20240813</v>
+      </c>
+      <c r="B362">
+        <v>49</v>
+      </c>
+      <c r="C362" t="s">
+        <v>16</v>
+      </c>
+      <c r="D362" t="s">
+        <v>11</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>20240813</v>
+      </c>
+      <c r="B363">
+        <v>49</v>
+      </c>
+      <c r="C363" t="s">
+        <v>16</v>
+      </c>
+      <c r="D363" t="s">
+        <v>11</v>
+      </c>
+      <c r="E363">
+        <v>2</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>20240813</v>
+      </c>
+      <c r="B364">
+        <v>49</v>
+      </c>
+      <c r="C364" t="s">
+        <v>16</v>
+      </c>
+      <c r="D364" t="s">
+        <v>11</v>
+      </c>
+      <c r="E364">
+        <v>3</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>20240813</v>
+      </c>
+      <c r="B365">
+        <v>49</v>
+      </c>
+      <c r="C365" t="s">
+        <v>16</v>
+      </c>
+      <c r="D365" t="s">
+        <v>11</v>
+      </c>
+      <c r="E365">
+        <v>4</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>20240813</v>
+      </c>
+      <c r="B366">
+        <v>49</v>
+      </c>
+      <c r="C366" t="s">
+        <v>16</v>
+      </c>
+      <c r="D366" t="s">
+        <v>11</v>
+      </c>
+      <c r="E366">
+        <v>5</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>20240813</v>
+      </c>
+      <c r="B367">
+        <v>49</v>
+      </c>
+      <c r="C367" t="s">
+        <v>16</v>
+      </c>
+      <c r="D367" t="s">
+        <v>11</v>
+      </c>
+      <c r="E367">
+        <v>6</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>20240813</v>
+      </c>
+      <c r="B368">
+        <v>49</v>
+      </c>
+      <c r="C368" t="s">
+        <v>16</v>
+      </c>
+      <c r="D368" t="s">
+        <v>11</v>
+      </c>
+      <c r="E368">
+        <v>7</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>20240813</v>
+      </c>
+      <c r="B369">
+        <v>49</v>
+      </c>
+      <c r="C369" t="s">
+        <v>16</v>
+      </c>
+      <c r="D369" t="s">
+        <v>11</v>
+      </c>
+      <c r="E369">
+        <v>8</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>0</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>1</v>
+      </c>
+      <c r="K369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>20240813</v>
+      </c>
+      <c r="B370">
+        <v>49</v>
+      </c>
+      <c r="C370" t="s">
+        <v>16</v>
+      </c>
+      <c r="D370" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370">
+        <v>9</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>20240813</v>
+      </c>
+      <c r="B371">
+        <v>49</v>
+      </c>
+      <c r="C371" t="s">
+        <v>16</v>
+      </c>
+      <c r="D371" t="s">
+        <v>11</v>
+      </c>
+      <c r="E371">
+        <v>10</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>20240813</v>
+      </c>
+      <c r="B372">
+        <v>49</v>
+      </c>
+      <c r="C372" t="s">
+        <v>16</v>
+      </c>
+      <c r="D372" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372">
+        <v>11</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>20240813</v>
+      </c>
+      <c r="B373">
+        <v>49</v>
+      </c>
+      <c r="C373" t="s">
+        <v>16</v>
+      </c>
+      <c r="D373" t="s">
+        <v>11</v>
+      </c>
+      <c r="E373">
+        <v>12</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>20240813</v>
+      </c>
+      <c r="B374">
+        <v>49</v>
+      </c>
+      <c r="C374" t="s">
+        <v>16</v>
+      </c>
+      <c r="D374" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374">
+        <v>13</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>20240813</v>
+      </c>
+      <c r="B375">
+        <v>49</v>
+      </c>
+      <c r="C375" t="s">
+        <v>16</v>
+      </c>
+      <c r="D375" t="s">
+        <v>11</v>
+      </c>
+      <c r="E375">
+        <v>14</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>20240813</v>
+      </c>
+      <c r="B376">
+        <v>49</v>
+      </c>
+      <c r="C376" t="s">
+        <v>16</v>
+      </c>
+      <c r="D376" t="s">
+        <v>11</v>
+      </c>
+      <c r="E376">
+        <v>15</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>20240813</v>
+      </c>
+      <c r="B377">
+        <v>49</v>
+      </c>
+      <c r="C377" t="s">
+        <v>16</v>
+      </c>
+      <c r="D377" t="s">
+        <v>11</v>
+      </c>
+      <c r="E377">
+        <v>16</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>20240813</v>
+      </c>
+      <c r="B378">
+        <v>49</v>
+      </c>
+      <c r="C378" t="s">
+        <v>16</v>
+      </c>
+      <c r="D378" t="s">
+        <v>11</v>
+      </c>
+      <c r="E378">
+        <v>17</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>20240813</v>
+      </c>
+      <c r="B379">
+        <v>49</v>
+      </c>
+      <c r="C379" t="s">
+        <v>16</v>
+      </c>
+      <c r="D379" t="s">
+        <v>11</v>
+      </c>
+      <c r="E379">
+        <v>18</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>20240813</v>
+      </c>
+      <c r="B380">
+        <v>49</v>
+      </c>
+      <c r="C380" t="s">
+        <v>16</v>
+      </c>
+      <c r="D380" t="s">
+        <v>11</v>
+      </c>
+      <c r="E380">
+        <v>19</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>20240813</v>
+      </c>
+      <c r="B381">
+        <v>49</v>
+      </c>
+      <c r="C381" t="s">
+        <v>16</v>
+      </c>
+      <c r="D381" t="s">
+        <v>11</v>
+      </c>
+      <c r="E381">
+        <v>20</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>20240813</v>
+      </c>
+      <c r="B382">
+        <v>49</v>
+      </c>
+      <c r="C382" t="s">
+        <v>16</v>
+      </c>
+      <c r="D382" t="s">
+        <v>12</v>
+      </c>
+      <c r="E382">
+        <v>21</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>20240813</v>
+      </c>
+      <c r="B383">
+        <v>49</v>
+      </c>
+      <c r="C383" t="s">
+        <v>16</v>
+      </c>
+      <c r="D383" t="s">
+        <v>12</v>
+      </c>
+      <c r="E383">
+        <v>22</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+      <c r="I383">
+        <v>1</v>
+      </c>
+      <c r="J383">
+        <v>1</v>
+      </c>
+      <c r="K383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>20240813</v>
+      </c>
+      <c r="B384">
+        <v>49</v>
+      </c>
+      <c r="C384" t="s">
+        <v>16</v>
+      </c>
+      <c r="D384" t="s">
+        <v>12</v>
+      </c>
+      <c r="E384">
+        <v>23</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>20240813</v>
+      </c>
+      <c r="B385">
+        <v>49</v>
+      </c>
+      <c r="C385" t="s">
+        <v>16</v>
+      </c>
+      <c r="D385" t="s">
+        <v>12</v>
+      </c>
+      <c r="E385">
+        <v>24</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>20240813</v>
+      </c>
+      <c r="B386">
+        <v>49</v>
+      </c>
+      <c r="C386" t="s">
+        <v>16</v>
+      </c>
+      <c r="D386" t="s">
+        <v>12</v>
+      </c>
+      <c r="E386">
+        <v>25</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>1</v>
+      </c>
+      <c r="I386">
+        <v>1</v>
+      </c>
+      <c r="J386">
+        <v>1</v>
+      </c>
+      <c r="K386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>20240813</v>
+      </c>
+      <c r="B387">
+        <v>49</v>
+      </c>
+      <c r="C387" t="s">
+        <v>16</v>
+      </c>
+      <c r="D387" t="s">
+        <v>12</v>
+      </c>
+      <c r="E387">
+        <v>26</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>20240813</v>
+      </c>
+      <c r="B388">
+        <v>49</v>
+      </c>
+      <c r="C388" t="s">
+        <v>16</v>
+      </c>
+      <c r="D388" t="s">
+        <v>12</v>
+      </c>
+      <c r="E388">
+        <v>27</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>1</v>
+      </c>
+      <c r="I388">
+        <v>1</v>
+      </c>
+      <c r="J388">
+        <v>1</v>
+      </c>
+      <c r="K388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>20240813</v>
+      </c>
+      <c r="B389">
+        <v>49</v>
+      </c>
+      <c r="C389" t="s">
+        <v>16</v>
+      </c>
+      <c r="D389" t="s">
+        <v>12</v>
+      </c>
+      <c r="E389">
+        <v>28</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+      <c r="I389">
+        <v>1</v>
+      </c>
+      <c r="J389">
+        <v>1</v>
+      </c>
+      <c r="K389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>20240813</v>
+      </c>
+      <c r="B390">
+        <v>49</v>
+      </c>
+      <c r="C390" t="s">
+        <v>16</v>
+      </c>
+      <c r="D390" t="s">
+        <v>12</v>
+      </c>
+      <c r="E390">
+        <v>29</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+      <c r="I390">
+        <v>1</v>
+      </c>
+      <c r="J390">
+        <v>1</v>
+      </c>
+      <c r="K390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>20240813</v>
+      </c>
+      <c r="B391">
+        <v>49</v>
+      </c>
+      <c r="C391" t="s">
+        <v>16</v>
+      </c>
+      <c r="D391" t="s">
+        <v>12</v>
+      </c>
+      <c r="E391">
+        <v>30</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>1</v>
+      </c>
+      <c r="I391">
+        <v>1</v>
+      </c>
+      <c r="J391">
+        <v>1</v>
+      </c>
+      <c r="K391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>20240813</v>
+      </c>
+      <c r="B392">
+        <v>49</v>
+      </c>
+      <c r="C392" t="s">
+        <v>16</v>
+      </c>
+      <c r="D392" t="s">
+        <v>12</v>
+      </c>
+      <c r="E392">
+        <v>31</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>1</v>
+      </c>
+      <c r="H392">
+        <v>1</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392">
+        <v>1</v>
+      </c>
+      <c r="K392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>20240813</v>
+      </c>
+      <c r="B393">
+        <v>49</v>
+      </c>
+      <c r="C393" t="s">
+        <v>16</v>
+      </c>
+      <c r="D393" t="s">
+        <v>12</v>
+      </c>
+      <c r="E393">
+        <v>32</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>1</v>
+      </c>
+      <c r="I393">
+        <v>1</v>
+      </c>
+      <c r="J393">
+        <v>1</v>
+      </c>
+      <c r="K393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>20240813</v>
+      </c>
+      <c r="B394">
+        <v>49</v>
+      </c>
+      <c r="C394" t="s">
+        <v>16</v>
+      </c>
+      <c r="D394" t="s">
+        <v>12</v>
+      </c>
+      <c r="E394">
+        <v>33</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+      <c r="H394">
+        <v>0</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>20240813</v>
+      </c>
+      <c r="B395">
+        <v>49</v>
+      </c>
+      <c r="C395" t="s">
+        <v>16</v>
+      </c>
+      <c r="D395" t="s">
+        <v>12</v>
+      </c>
+      <c r="E395">
+        <v>34</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+      <c r="G395">
+        <v>1</v>
+      </c>
+      <c r="H395">
+        <v>1</v>
+      </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395">
+        <v>1</v>
+      </c>
+      <c r="K395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>20240813</v>
+      </c>
+      <c r="B396">
+        <v>49</v>
+      </c>
+      <c r="C396" t="s">
+        <v>16</v>
+      </c>
+      <c r="D396" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396">
+        <v>35</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>0</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>20240813</v>
+      </c>
+      <c r="B397">
+        <v>49</v>
+      </c>
+      <c r="C397" t="s">
+        <v>16</v>
+      </c>
+      <c r="D397" t="s">
+        <v>12</v>
+      </c>
+      <c r="E397">
+        <v>36</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>1</v>
+      </c>
+      <c r="H397">
+        <v>1</v>
+      </c>
+      <c r="I397">
+        <v>1</v>
+      </c>
+      <c r="J397">
+        <v>1</v>
+      </c>
+      <c r="K397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>20240813</v>
+      </c>
+      <c r="B398">
+        <v>49</v>
+      </c>
+      <c r="C398" t="s">
+        <v>16</v>
+      </c>
+      <c r="D398" t="s">
+        <v>12</v>
+      </c>
+      <c r="E398">
+        <v>37</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+      <c r="G398">
+        <v>0</v>
+      </c>
+      <c r="H398">
+        <v>1</v>
+      </c>
+      <c r="I398">
+        <v>1</v>
+      </c>
+      <c r="J398">
+        <v>1</v>
+      </c>
+      <c r="K398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>20240813</v>
+      </c>
+      <c r="B399">
+        <v>49</v>
+      </c>
+      <c r="C399" t="s">
+        <v>16</v>
+      </c>
+      <c r="D399" t="s">
+        <v>12</v>
+      </c>
+      <c r="E399">
+        <v>38</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+      <c r="H399">
+        <v>0</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>20240813</v>
+      </c>
+      <c r="B400">
+        <v>49</v>
+      </c>
+      <c r="C400" t="s">
+        <v>16</v>
+      </c>
+      <c r="D400" t="s">
+        <v>12</v>
+      </c>
+      <c r="E400">
+        <v>39</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+      <c r="H400">
+        <v>1</v>
+      </c>
+      <c r="I400">
+        <v>1</v>
+      </c>
+      <c r="J400">
+        <v>1</v>
+      </c>
+      <c r="K400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>20240813</v>
+      </c>
+      <c r="B401">
+        <v>49</v>
+      </c>
+      <c r="C401" t="s">
+        <v>16</v>
+      </c>
+      <c r="D401" t="s">
+        <v>12</v>
+      </c>
+      <c r="E401">
+        <v>40</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+      <c r="H401">
+        <v>1</v>
+      </c>
+      <c r="I401">
+        <v>1</v>
+      </c>
+      <c r="J401">
+        <v>1</v>
+      </c>
+      <c r="K401">
         <v>1</v>
       </c>
     </row>

--- a/data/survival/survival_resazurin.xlsx
+++ b/data/survival/survival_resazurin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/10K-seed-Cgigas/data/survival/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474F4954-B4C6-4F41-910B-C164FD376379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAF813F-C96C-3C40-B4B1-9A0BC1F6FD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-620" yWindow="760" windowWidth="18160" windowHeight="17720" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
+    <workbookView xWindow="-21080" yWindow="-1460" windowWidth="18160" windowHeight="17720" xr2:uid="{FF76C7E6-3408-934E-9F62-D1FDE39EF6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="17">
   <si>
     <t>date.resazurin</t>
   </si>
@@ -459,11 +459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE0A6E7-C44F-C349-A3CE-3BF585EE18ED}">
-  <dimension ref="A1:K401"/>
+  <dimension ref="A1:K441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K401" sqref="K401"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L435" sqref="L435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14505,6 +14505,1406 @@
         <v>1</v>
       </c>
       <c r="K401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>20240815</v>
+      </c>
+      <c r="B402">
+        <v>76</v>
+      </c>
+      <c r="C402" t="s">
+        <v>15</v>
+      </c>
+      <c r="D402" t="s">
+        <v>11</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>20240815</v>
+      </c>
+      <c r="B403">
+        <v>76</v>
+      </c>
+      <c r="C403" t="s">
+        <v>15</v>
+      </c>
+      <c r="D403" t="s">
+        <v>11</v>
+      </c>
+      <c r="E403">
+        <v>2</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403">
+        <v>0</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>20240815</v>
+      </c>
+      <c r="B404">
+        <v>76</v>
+      </c>
+      <c r="C404" t="s">
+        <v>15</v>
+      </c>
+      <c r="D404" t="s">
+        <v>11</v>
+      </c>
+      <c r="E404">
+        <v>3</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>20240815</v>
+      </c>
+      <c r="B405">
+        <v>76</v>
+      </c>
+      <c r="C405" t="s">
+        <v>15</v>
+      </c>
+      <c r="D405" t="s">
+        <v>11</v>
+      </c>
+      <c r="E405">
+        <v>4</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>20240815</v>
+      </c>
+      <c r="B406">
+        <v>76</v>
+      </c>
+      <c r="C406" t="s">
+        <v>15</v>
+      </c>
+      <c r="D406" t="s">
+        <v>11</v>
+      </c>
+      <c r="E406">
+        <v>5</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+      <c r="H406">
+        <v>0</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>20240815</v>
+      </c>
+      <c r="B407">
+        <v>76</v>
+      </c>
+      <c r="C407" t="s">
+        <v>15</v>
+      </c>
+      <c r="D407" t="s">
+        <v>11</v>
+      </c>
+      <c r="E407">
+        <v>6</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>20240815</v>
+      </c>
+      <c r="B408">
+        <v>76</v>
+      </c>
+      <c r="C408" t="s">
+        <v>15</v>
+      </c>
+      <c r="D408" t="s">
+        <v>11</v>
+      </c>
+      <c r="E408">
+        <v>7</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>20240815</v>
+      </c>
+      <c r="B409">
+        <v>76</v>
+      </c>
+      <c r="C409" t="s">
+        <v>15</v>
+      </c>
+      <c r="D409" t="s">
+        <v>11</v>
+      </c>
+      <c r="E409">
+        <v>8</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+      <c r="H409">
+        <v>0</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>20240815</v>
+      </c>
+      <c r="B410">
+        <v>76</v>
+      </c>
+      <c r="C410" t="s">
+        <v>15</v>
+      </c>
+      <c r="D410" t="s">
+        <v>11</v>
+      </c>
+      <c r="E410">
+        <v>9</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>20240815</v>
+      </c>
+      <c r="B411">
+        <v>76</v>
+      </c>
+      <c r="C411" t="s">
+        <v>15</v>
+      </c>
+      <c r="D411" t="s">
+        <v>11</v>
+      </c>
+      <c r="E411">
+        <v>10</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+      <c r="H411">
+        <v>0</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>1</v>
+      </c>
+      <c r="K411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>20240815</v>
+      </c>
+      <c r="B412">
+        <v>76</v>
+      </c>
+      <c r="C412" t="s">
+        <v>15</v>
+      </c>
+      <c r="D412" t="s">
+        <v>11</v>
+      </c>
+      <c r="E412">
+        <v>11</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412">
+        <v>0</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>20240815</v>
+      </c>
+      <c r="B413">
+        <v>76</v>
+      </c>
+      <c r="C413" t="s">
+        <v>15</v>
+      </c>
+      <c r="D413" t="s">
+        <v>11</v>
+      </c>
+      <c r="E413">
+        <v>12</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>20240815</v>
+      </c>
+      <c r="B414">
+        <v>76</v>
+      </c>
+      <c r="C414" t="s">
+        <v>15</v>
+      </c>
+      <c r="D414" t="s">
+        <v>11</v>
+      </c>
+      <c r="E414">
+        <v>13</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>20240815</v>
+      </c>
+      <c r="B415">
+        <v>76</v>
+      </c>
+      <c r="C415" t="s">
+        <v>15</v>
+      </c>
+      <c r="D415" t="s">
+        <v>11</v>
+      </c>
+      <c r="E415">
+        <v>14</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
+      <c r="H415">
+        <v>0</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>20240815</v>
+      </c>
+      <c r="B416">
+        <v>76</v>
+      </c>
+      <c r="C416" t="s">
+        <v>15</v>
+      </c>
+      <c r="D416" t="s">
+        <v>11</v>
+      </c>
+      <c r="E416">
+        <v>15</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+      <c r="H416">
+        <v>0</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>20240815</v>
+      </c>
+      <c r="B417">
+        <v>76</v>
+      </c>
+      <c r="C417" t="s">
+        <v>15</v>
+      </c>
+      <c r="D417" t="s">
+        <v>11</v>
+      </c>
+      <c r="E417">
+        <v>16</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="H417">
+        <v>0</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>20240815</v>
+      </c>
+      <c r="B418">
+        <v>76</v>
+      </c>
+      <c r="C418" t="s">
+        <v>15</v>
+      </c>
+      <c r="D418" t="s">
+        <v>11</v>
+      </c>
+      <c r="E418">
+        <v>17</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>0</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>20240815</v>
+      </c>
+      <c r="B419">
+        <v>76</v>
+      </c>
+      <c r="C419" t="s">
+        <v>15</v>
+      </c>
+      <c r="D419" t="s">
+        <v>11</v>
+      </c>
+      <c r="E419">
+        <v>18</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>0</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>20240815</v>
+      </c>
+      <c r="B420">
+        <v>76</v>
+      </c>
+      <c r="C420" t="s">
+        <v>15</v>
+      </c>
+      <c r="D420" t="s">
+        <v>11</v>
+      </c>
+      <c r="E420">
+        <v>19</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+      <c r="H420">
+        <v>0</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>20240815</v>
+      </c>
+      <c r="B421">
+        <v>76</v>
+      </c>
+      <c r="C421" t="s">
+        <v>15</v>
+      </c>
+      <c r="D421" t="s">
+        <v>11</v>
+      </c>
+      <c r="E421">
+        <v>20</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+      <c r="H421">
+        <v>0</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>20240815</v>
+      </c>
+      <c r="B422">
+        <v>76</v>
+      </c>
+      <c r="C422" t="s">
+        <v>15</v>
+      </c>
+      <c r="D422" t="s">
+        <v>12</v>
+      </c>
+      <c r="E422">
+        <v>21</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+      <c r="H422">
+        <v>1</v>
+      </c>
+      <c r="I422">
+        <v>1</v>
+      </c>
+      <c r="J422">
+        <v>1</v>
+      </c>
+      <c r="K422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>20240815</v>
+      </c>
+      <c r="B423">
+        <v>76</v>
+      </c>
+      <c r="C423" t="s">
+        <v>15</v>
+      </c>
+      <c r="D423" t="s">
+        <v>12</v>
+      </c>
+      <c r="E423">
+        <v>22</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+      <c r="H423">
+        <v>1</v>
+      </c>
+      <c r="I423">
+        <v>1</v>
+      </c>
+      <c r="J423">
+        <v>1</v>
+      </c>
+      <c r="K423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>20240815</v>
+      </c>
+      <c r="B424">
+        <v>76</v>
+      </c>
+      <c r="C424" t="s">
+        <v>15</v>
+      </c>
+      <c r="D424" t="s">
+        <v>12</v>
+      </c>
+      <c r="E424">
+        <v>23</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+      <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>20240815</v>
+      </c>
+      <c r="B425">
+        <v>76</v>
+      </c>
+      <c r="C425" t="s">
+        <v>15</v>
+      </c>
+      <c r="D425" t="s">
+        <v>12</v>
+      </c>
+      <c r="E425">
+        <v>24</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+      <c r="H425">
+        <v>0</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>20240815</v>
+      </c>
+      <c r="B426">
+        <v>76</v>
+      </c>
+      <c r="C426" t="s">
+        <v>15</v>
+      </c>
+      <c r="D426" t="s">
+        <v>12</v>
+      </c>
+      <c r="E426">
+        <v>25</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>20240815</v>
+      </c>
+      <c r="B427">
+        <v>76</v>
+      </c>
+      <c r="C427" t="s">
+        <v>15</v>
+      </c>
+      <c r="D427" t="s">
+        <v>12</v>
+      </c>
+      <c r="E427">
+        <v>26</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>1</v>
+      </c>
+      <c r="I427">
+        <v>1</v>
+      </c>
+      <c r="J427">
+        <v>1</v>
+      </c>
+      <c r="K427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>20240815</v>
+      </c>
+      <c r="B428">
+        <v>76</v>
+      </c>
+      <c r="C428" t="s">
+        <v>15</v>
+      </c>
+      <c r="D428" t="s">
+        <v>12</v>
+      </c>
+      <c r="E428">
+        <v>27</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>20240815</v>
+      </c>
+      <c r="B429">
+        <v>76</v>
+      </c>
+      <c r="C429" t="s">
+        <v>15</v>
+      </c>
+      <c r="D429" t="s">
+        <v>12</v>
+      </c>
+      <c r="E429">
+        <v>28</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+      <c r="H429">
+        <v>0</v>
+      </c>
+      <c r="I429">
+        <v>1</v>
+      </c>
+      <c r="J429">
+        <v>1</v>
+      </c>
+      <c r="K429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>20240815</v>
+      </c>
+      <c r="B430">
+        <v>76</v>
+      </c>
+      <c r="C430" t="s">
+        <v>15</v>
+      </c>
+      <c r="D430" t="s">
+        <v>12</v>
+      </c>
+      <c r="E430">
+        <v>29</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+      <c r="H430">
+        <v>0</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>20240815</v>
+      </c>
+      <c r="B431">
+        <v>76</v>
+      </c>
+      <c r="C431" t="s">
+        <v>15</v>
+      </c>
+      <c r="D431" t="s">
+        <v>12</v>
+      </c>
+      <c r="E431">
+        <v>30</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>0</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>20240815</v>
+      </c>
+      <c r="B432">
+        <v>76</v>
+      </c>
+      <c r="C432" t="s">
+        <v>15</v>
+      </c>
+      <c r="D432" t="s">
+        <v>12</v>
+      </c>
+      <c r="E432">
+        <v>31</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>1</v>
+      </c>
+      <c r="I432">
+        <v>1</v>
+      </c>
+      <c r="J432">
+        <v>1</v>
+      </c>
+      <c r="K432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>20240815</v>
+      </c>
+      <c r="B433">
+        <v>76</v>
+      </c>
+      <c r="C433" t="s">
+        <v>15</v>
+      </c>
+      <c r="D433" t="s">
+        <v>12</v>
+      </c>
+      <c r="E433">
+        <v>32</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+      <c r="H433">
+        <v>1</v>
+      </c>
+      <c r="I433">
+        <v>1</v>
+      </c>
+      <c r="J433">
+        <v>1</v>
+      </c>
+      <c r="K433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>20240815</v>
+      </c>
+      <c r="B434">
+        <v>76</v>
+      </c>
+      <c r="C434" t="s">
+        <v>15</v>
+      </c>
+      <c r="D434" t="s">
+        <v>12</v>
+      </c>
+      <c r="E434">
+        <v>33</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>0</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>20240815</v>
+      </c>
+      <c r="B435">
+        <v>76</v>
+      </c>
+      <c r="C435" t="s">
+        <v>15</v>
+      </c>
+      <c r="D435" t="s">
+        <v>12</v>
+      </c>
+      <c r="E435">
+        <v>34</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435">
+        <v>1</v>
+      </c>
+      <c r="I435">
+        <v>1</v>
+      </c>
+      <c r="J435">
+        <v>1</v>
+      </c>
+      <c r="K435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>20240815</v>
+      </c>
+      <c r="B436">
+        <v>76</v>
+      </c>
+      <c r="C436" t="s">
+        <v>15</v>
+      </c>
+      <c r="D436" t="s">
+        <v>12</v>
+      </c>
+      <c r="E436">
+        <v>35</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>0</v>
+      </c>
+      <c r="I436">
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>1</v>
+      </c>
+      <c r="K436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>20240815</v>
+      </c>
+      <c r="B437">
+        <v>76</v>
+      </c>
+      <c r="C437" t="s">
+        <v>15</v>
+      </c>
+      <c r="D437" t="s">
+        <v>12</v>
+      </c>
+      <c r="E437">
+        <v>36</v>
+      </c>
+      <c r="F437">
+        <v>0</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+      <c r="H437">
+        <v>0</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>20240815</v>
+      </c>
+      <c r="B438">
+        <v>76</v>
+      </c>
+      <c r="C438" t="s">
+        <v>15</v>
+      </c>
+      <c r="D438" t="s">
+        <v>12</v>
+      </c>
+      <c r="E438">
+        <v>37</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>1</v>
+      </c>
+      <c r="I438">
+        <v>1</v>
+      </c>
+      <c r="J438">
+        <v>1</v>
+      </c>
+      <c r="K438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>20240815</v>
+      </c>
+      <c r="B439">
+        <v>76</v>
+      </c>
+      <c r="C439" t="s">
+        <v>15</v>
+      </c>
+      <c r="D439" t="s">
+        <v>12</v>
+      </c>
+      <c r="E439">
+        <v>38</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+      <c r="H439">
+        <v>1</v>
+      </c>
+      <c r="I439">
+        <v>1</v>
+      </c>
+      <c r="J439">
+        <v>1</v>
+      </c>
+      <c r="K439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>20240815</v>
+      </c>
+      <c r="B440">
+        <v>76</v>
+      </c>
+      <c r="C440" t="s">
+        <v>15</v>
+      </c>
+      <c r="D440" t="s">
+        <v>12</v>
+      </c>
+      <c r="E440">
+        <v>39</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440">
+        <v>1</v>
+      </c>
+      <c r="I440">
+        <v>1</v>
+      </c>
+      <c r="J440">
+        <v>1</v>
+      </c>
+      <c r="K440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>20240815</v>
+      </c>
+      <c r="B441">
+        <v>76</v>
+      </c>
+      <c r="C441" t="s">
+        <v>15</v>
+      </c>
+      <c r="D441" t="s">
+        <v>12</v>
+      </c>
+      <c r="E441">
+        <v>40</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>0</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
         <v>1</v>
       </c>
     </row>
